--- a/raw/cognition/raw_xlsx/V2 vs V4 - SPSS Template.xlsx
+++ b/raw/cognition/raw_xlsx/V2 vs V4 - SPSS Template.xlsx
@@ -460,7 +460,7 @@
     <t xml:space="preserve">APC115-109</t>
   </si>
   <si>
-    <t xml:space="preserve">DECAF</t>
+    <t xml:space="preserve">CAF</t>
   </si>
   <si>
     <t xml:space="preserve">V4</t>
@@ -493,7 +493,7 @@
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">CAF</t>
+    <t xml:space="preserve">DECAF</t>
   </si>
   <si>
     <t xml:space="preserve">73</t>
@@ -703,11 +703,11 @@
   </sheetPr>
   <dimension ref="A1:DF63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B33:B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
@@ -11189,7 +11189,7 @@
         <v>57.4828</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>193.8342</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>129</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>18.4737</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>12.4906</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -21298,10 +21298,10 @@
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B33:B47 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.43"/>
@@ -23453,10 +23453,10 @@
   <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="B33:B47 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.43"/>
@@ -27700,10 +27700,10 @@
   <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="1" sqref="B33:B47 I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.43"/>
